--- a/biology/Zoologie/Brasilotyphlus/Brasilotyphlus.xlsx
+++ b/biology/Zoologie/Brasilotyphlus/Brasilotyphlus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brasilotyphlus est un genre de gymnophiones de la famille des Siphonopidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brasilotyphlus est un genre de gymnophiones de la famille des Siphonopidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les deux espèces de ce genre sont endémiques du Brésil[1]. Elles se rencontrent dans les États d'Amazonas, du Pará et du Mato Grosso.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les deux espèces de ce genre sont endémiques du Brésil. Elles se rencontrent dans les États d'Amazonas, du Pará et du Mato Grosso.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (11 février 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (11 février 2014) :
 Brasilotyphlus braziliensis (Dunn, 1945)
 Brasilotyphlus guarantanus Maciel, Mott &amp; Hoogmoed, 2009</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Taylor, 1968 : The Caecilians of the World: A Taxonomic Review. Lawrence: University of Kansas Press, p. 1-848.</t>
         </is>
